--- a/Data/Excel/UnitData.xlsx
+++ b/Data/Excel/UnitData.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Novice</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>창병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Att</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,60 +459,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>(A2+100^2)+((F2+A2)^2)+((G2+A2)^2)+((LEN(C2)+A2)^2)</f>
+        <v>10175</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">(A3+100^2)+((F3+A3)^2)+((G3+A3)^2)+((LEN(C3)+A3)^2)</f>
+        <v>10602</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/UnitData.xlsx
+++ b/Data/Excel/UnitData.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$13</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Novice</t>
   </si>
@@ -76,6 +79,89 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철퇴병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이클롭스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaceMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyclops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Griffon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artillery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artillery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cavalry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magician</t>
   </si>
 </sst>
 </file>
@@ -459,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -470,15 +556,16 @@
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -490,25 +577,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <f>(B2+100^2)+((G2+B2)^2)+((H2+B2)^2)+((LEN(C2)+B2)^2)</f>
+        <v>10175</v>
       </c>
       <c r="B2">
-        <f>(A2+100^2)+((F2+A2)^2)+((G2+A2)^2)+((LEN(C2)+A2)^2)</f>
-        <v>10175</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -523,22 +613,25 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <f>(B3+100^2)+((G3+B3)^2)+((H3+B3)^2)+((LEN(C3)+B3)^2)</f>
+        <v>10602</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">(A3+100^2)+((F3+A3)^2)+((G3+A3)^2)+((LEN(C3)+A3)^2)</f>
-        <v>10602</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -550,25 +643,28 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f>(B4+100^2)+((G4+B4)^2)+((H4+B4)^2)+((LEN(C4)+B4)^2)</f>
+        <v>10678</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>10678</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -580,19 +676,324 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>(B5+100^2)+((G5+B5)^2)+((H5+B5)^2)+((LEN(C5)+B5)^2)</f>
+        <v>10716</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>(B6+100^2)+((G6+B6)^2)+((H6+B6)^2)+((LEN(C6)+B6)^2)</f>
+        <v>10800</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>(B7+100^2)+((G7+B7)^2)+((H7+B7)^2)+((LEN(C7)+B7)^2)</f>
+        <v>10915</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>(B8+100^2)+((G8+B8)^2)+((H8+B8)^2)+((LEN(C8)+B8)^2)</f>
+        <v>11013</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>(B9+100^2)+((G9+B9)^2)+((H9+B9)^2)+((LEN(C9)+B9)^2)</f>
+        <v>11117</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>(B10+100^2)+((G10+B10)^2)+((H10+B10)^2)+((LEN(C10)+B10)^2)</f>
+        <v>11167</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>(B11+100^2)+((G11+B11)^2)+((H11+B11)^2)+((LEN(C11)+B11)^2)</f>
+        <v>11415</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>(B12+100^2)+((G12+B12)^2)+((H12+B12)^2)+((LEN(C12)+B12)^2)</f>
+        <v>11465</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>(B13+100^2)+((G13+B13)^2)+((H13+B13)^2)+((LEN(C13)+B13)^2)</f>
+        <v>11632</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J13" xr:uid="{357CD230-8501-40BC-BCB3-26FA75E5F2F8}">
+    <sortState ref="A2:J13">
+      <sortCondition ref="B1:B13"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Data/Excel/UnitData.xlsx
+++ b/Data/Excel/UnitData.xlsx
@@ -5,14 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Foundation\JGame\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\JGame\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$13</definedName>
@@ -547,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +598,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>(B2+100^2)+((G2+B2)^2)+((H2+B2)^2)+((LEN(C2)+B2)^2)</f>
+        <f t="shared" ref="A2:A13" si="0">(B2+100^2)+((G2+B2)^2)+((H2+B2)^2)+((LEN(C2)+B2)^2)</f>
         <v>10175</v>
       </c>
       <c r="B2">
@@ -627,7 +631,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>(B3+100^2)+((G3+B3)^2)+((H3+B3)^2)+((LEN(C3)+B3)^2)</f>
+        <f t="shared" si="0"/>
         <v>10602</v>
       </c>
       <c r="B3">
@@ -660,7 +664,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>(B4+100^2)+((G4+B4)^2)+((H4+B4)^2)+((LEN(C4)+B4)^2)</f>
+        <f t="shared" si="0"/>
         <v>10678</v>
       </c>
       <c r="B4">
@@ -693,7 +697,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>(B5+100^2)+((G5+B5)^2)+((H5+B5)^2)+((LEN(C5)+B5)^2)</f>
+        <f t="shared" si="0"/>
         <v>10716</v>
       </c>
       <c r="B5">
@@ -726,7 +730,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>(B6+100^2)+((G6+B6)^2)+((H6+B6)^2)+((LEN(C6)+B6)^2)</f>
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
       <c r="B6">
@@ -759,7 +763,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>(B7+100^2)+((G7+B7)^2)+((H7+B7)^2)+((LEN(C7)+B7)^2)</f>
+        <f t="shared" si="0"/>
         <v>10915</v>
       </c>
       <c r="B7">
@@ -792,7 +796,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>(B8+100^2)+((G8+B8)^2)+((H8+B8)^2)+((LEN(C8)+B8)^2)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="B8">
@@ -825,7 +829,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>(B9+100^2)+((G9+B9)^2)+((H9+B9)^2)+((LEN(C9)+B9)^2)</f>
+        <f t="shared" si="0"/>
         <v>11117</v>
       </c>
       <c r="B9">
@@ -858,7 +862,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>(B10+100^2)+((G10+B10)^2)+((H10+B10)^2)+((LEN(C10)+B10)^2)</f>
+        <f t="shared" si="0"/>
         <v>11167</v>
       </c>
       <c r="B10">
@@ -891,7 +895,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>(B11+100^2)+((G11+B11)^2)+((H11+B11)^2)+((LEN(C11)+B11)^2)</f>
+        <f t="shared" si="0"/>
         <v>11415</v>
       </c>
       <c r="B11">
@@ -924,7 +928,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>(B12+100^2)+((G12+B12)^2)+((H12+B12)^2)+((LEN(C12)+B12)^2)</f>
+        <f t="shared" si="0"/>
         <v>11465</v>
       </c>
       <c r="B12">
@@ -957,7 +961,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>(B13+100^2)+((G13+B13)^2)+((H13+B13)^2)+((LEN(C13)+B13)^2)</f>
+        <f t="shared" si="0"/>
         <v>11632</v>
       </c>
       <c r="B13">
@@ -998,4 +1002,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E0BCBC-BAE8-41D0-B1B5-92F05D44E171}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A11ED1F-ABAA-4087-8632-ED2DDC4602A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BC1FCB-BC40-434C-8358-42E683054CB4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4EFA03-7A86-4339-98C2-57CA032F38E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>